--- a/Adactin_Test_Cases.xlsx
+++ b/Adactin_Test_Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView windowWidth="23040" windowHeight="11724"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="749">
   <si>
     <t xml:space="preserve">                   LOGO</t>
   </si>
@@ -46,10 +46,16 @@
     <t>VERSION NO</t>
   </si>
   <si>
+    <t>114.0.5735.198</t>
+  </si>
+  <si>
     <t>EXECUTED DATE</t>
   </si>
   <si>
     <t>PRE-CONDOTION</t>
+  </si>
+  <si>
+    <t>URL: https://adactinhotelapp.com/</t>
   </si>
   <si>
     <t>REVIEWED BY</t>
@@ -4168,11 +4174,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -4320,9 +4326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4337,15 +4342,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4375,16 +4379,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4413,16 +4410,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4435,15 +4440,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4481,13 +4487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4499,25 +4499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4529,19 +4541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4559,7 +4565,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4571,19 +4595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4595,7 +4613,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4607,55 +4661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4669,43 +4675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4735,16 +4715,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4758,6 +4738,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4766,18 +4761,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4786,116 +4789,92 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4904,13 +4883,40 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4996,7 +5002,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5424,8 +5430,8 @@
   <sheetPr/>
   <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -5499,30 +5505,34 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -5531,445 +5541,445 @@
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="53" customHeight="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="62.4" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="62.4" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="62.4" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="62.4" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="93.6" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="78" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="62.4" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="62.4" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="78" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="202.8" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="78" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="187.2" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="3:3">
@@ -5977,740 +5987,740 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="31.2" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="31.2" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="31.2" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="31.2" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="31.2" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="62.4" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="46.8" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="62.4" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="46.8" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="46.8" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="78" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="265.2" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="31.2" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="31.2" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="62.4" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="31.2" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="46.8" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="78" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="78" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="78" spans="1:9">
       <c r="A41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="H41" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>211</v>
-      </c>
       <c r="I41" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="78" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="78" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="78" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="78" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="7:7">
@@ -6718,694 +6728,694 @@
     </row>
     <row r="47" ht="78" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" ht="78" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" ht="78" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" ht="78" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" ht="78" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" ht="78" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" ht="78" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" ht="78" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" ht="78" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="78" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" ht="78" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G57" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="58" ht="265.2" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" ht="265.2" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="265.2" spans="1:9">
       <c r="A60" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="E60" s="17" t="s">
+      <c r="H60" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="I60" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="265.2" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="78" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" ht="265.2" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" ht="78" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" ht="78" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" ht="78" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" ht="78" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" ht="78" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" spans="7:7">
@@ -7413,339 +7423,339 @@
     </row>
     <row r="70" ht="265.2" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="265.2" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" ht="265.2" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H72" s="25" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="265.2" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G73" s="25" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H73" s="25" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="265.2" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G74" s="25" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H74" s="25" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" ht="265.2" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="265.2" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="296.4" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G77" s="25" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H77" s="25" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" ht="296.4" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G78" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="I78" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="I78" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="79" ht="296.4" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I79" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" ht="296.4" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E80" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I80" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="I80" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" spans="7:7">
@@ -7753,659 +7763,659 @@
     </row>
     <row r="82" ht="301" customHeight="1" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G82" s="25" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H82" s="25" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="296.4" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G83" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H83" s="25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" ht="296.4" spans="1:10">
       <c r="A84" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D84" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="B84" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>393</v>
-      </c>
       <c r="E84" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I84" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" ht="296.4" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I85" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" ht="296.4" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I86" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" ht="296.4" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I87" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" ht="296.4" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G88" s="25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H88" s="25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I88" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" ht="296.4" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G89" s="25" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I89" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" ht="296.4" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H90" s="25" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" ht="296.4" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G91" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="I91" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J91" s="24" t="s">
         <v>433</v>
-      </c>
-      <c r="H91" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="I91" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J91" s="24" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="92" ht="296.4" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G92" s="25" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H92" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J92" s="24" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" ht="296.4" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G93" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="I93" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J93" s="24" t="s">
         <v>442</v>
-      </c>
-      <c r="H93" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="I93" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J93" s="24" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="94" ht="296.4" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H94" s="25" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I94" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J94" s="24" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" ht="296.4" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I95" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" ht="296.4" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="296.4" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G97" s="25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H97" s="25" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="296.4" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G98" s="25" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H98" s="25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I98" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="296.4" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I99" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" ht="409" customHeight="1" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E100" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="I100" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J100" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="I100" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="101" ht="296.4" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E101" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I101" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J101" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I101" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="102" ht="296.4" spans="1:10">
       <c r="A102" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="C102" s="24" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E102" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="I102" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G102" s="25" t="s">
-        <v>483</v>
-      </c>
-      <c r="H102" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="I102" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="103" s="2" customFormat="1" spans="7:7">
@@ -8413,351 +8423,351 @@
     </row>
     <row r="104" ht="78" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I104" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" ht="78" spans="1:10">
       <c r="A105" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G105" s="25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I105" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106" ht="124.8" spans="1:10">
       <c r="A106" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I106" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" ht="124.8" spans="1:10">
       <c r="A107" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B107" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E107" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="I107" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J107" s="24" t="s">
         <v>504</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F107" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G107" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="H107" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="I107" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J107" s="24" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="108" ht="124.8" spans="1:10">
       <c r="A108" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B108" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F108" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="I108" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J108" s="24" t="s">
         <v>504</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="E108" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G108" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="I108" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J108" s="24" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="109" ht="78" spans="1:10">
       <c r="A109" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I109" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" ht="78" spans="1:10">
       <c r="A110" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I110" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" ht="78" spans="1:10">
       <c r="A111" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I111" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="112" ht="78" spans="1:10">
       <c r="A112" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="I112" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="I112" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="113" ht="78" spans="1:10">
       <c r="A113" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E113" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G113" s="25" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H113" s="25" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I113" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="114" ht="78" spans="1:10">
       <c r="A114" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E114" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I114" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" spans="2:7">
@@ -8770,368 +8780,368 @@
     </row>
     <row r="116" ht="78" spans="1:10">
       <c r="A116" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E116" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G116" s="25" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H116" s="25" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="I116" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J116" s="24" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" ht="78" spans="1:10">
       <c r="A117" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E117" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I117" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J117" s="24" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" ht="78" spans="1:10">
       <c r="A118" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B118" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="E118" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="I118" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J118" s="24" t="s">
         <v>549</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="I118" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J118" s="24" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="119" ht="78" spans="1:10">
       <c r="A119" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I119" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="120" ht="78" spans="1:10">
       <c r="A120" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B120" s="37" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G120" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I120" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I120" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="121" ht="93.6" spans="1:10">
       <c r="A121" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I121" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J121" s="24" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" ht="78" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F122" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I122" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" ht="78" spans="1:9">
       <c r="A123" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F123" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I123" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" ht="78" spans="1:9">
       <c r="A124" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="I124" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" ht="78" spans="1:9">
       <c r="A125" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H125" s="25" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I125" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" ht="78" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I126" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" ht="78" spans="1:9">
       <c r="A127" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="I127" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" spans="3:7">
@@ -9140,258 +9150,258 @@
     </row>
     <row r="129" ht="78" spans="1:10">
       <c r="A129" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D129" s="19" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F129" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="I129" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J129" s="20" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="130" ht="78" spans="1:10">
       <c r="A130" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F130" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I130" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J130" s="19" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" ht="78" spans="1:10">
       <c r="A131" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B131" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="C131" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F131" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="I131" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J131" s="19" t="s">
         <v>607</v>
-      </c>
-      <c r="C131" s="42" t="s">
-        <v>595</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F131" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="I131" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J131" s="19" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="132" ht="78" spans="1:10">
       <c r="A132" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C132" s="42" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E132" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H132" s="25" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I132" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J132" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" ht="78" spans="1:10">
       <c r="A133" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I133" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J133" s="19" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="134" ht="78" spans="1:10">
       <c r="A134" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G134" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="I134" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J134" s="19" t="s">
         <v>623</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="I134" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J134" s="19" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="135" ht="78" spans="1:10">
       <c r="A135" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C135" s="42" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E135" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F135" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G135" s="25" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H135" s="25" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I135" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" ht="78" spans="1:10">
       <c r="A136" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E136" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G136" s="25" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="H136" s="25" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="I136" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="1" spans="3:7">
@@ -9400,194 +9410,194 @@
     </row>
     <row r="138" ht="78" spans="1:10">
       <c r="A138" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D138" s="19" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E138" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G138" s="25" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H138" s="25" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I138" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J138" s="20" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" ht="78" spans="1:10">
       <c r="A139" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C139" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D139" s="19" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E139" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I139" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J139" s="20" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" ht="78" spans="1:10">
       <c r="A140" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B140" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C140" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F140" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="I140" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J140" s="20" t="s">
         <v>647</v>
-      </c>
-      <c r="C140" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="H140" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="I140" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J140" s="20" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="141" ht="78" spans="1:10">
       <c r="A141" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="C141" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="D141" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="E141" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="H141" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="I141" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J141" s="20" t="s">
         <v>647</v>
-      </c>
-      <c r="C141" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="D141" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="E141" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="H141" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="I141" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J141" s="20" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="142" ht="78" spans="1:10">
       <c r="A142" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E142" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="I142" s="29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" ht="78" spans="1:10">
       <c r="A143" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E143" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G143" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="I143" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="I143" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" spans="7:7">
@@ -9595,504 +9605,504 @@
     </row>
     <row r="145" ht="78" spans="1:9">
       <c r="A145" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="I145" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" ht="78" spans="1:9">
       <c r="A146" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E146" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F146" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G146" s="43" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H146" s="43" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I146" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" ht="78" spans="1:9">
       <c r="A147" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D147" s="19" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E147" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F147" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G147" s="43" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H147" s="43" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I147" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" ht="78" spans="1:9">
       <c r="A148" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G148" s="43" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H148" s="43" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="I148" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" ht="78" spans="1:10">
       <c r="A149" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D149" s="19" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E149" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G149" s="43" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H149" s="43" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I149" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J149" s="20" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="150" ht="78" spans="1:10">
       <c r="A150" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E150" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G150" s="44" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H150" s="44" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="I150" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J150" s="46" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" ht="78" spans="1:9">
       <c r="A151" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H151" s="25" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="I151" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" ht="78" spans="1:10">
       <c r="A152" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G152" s="43" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H152" s="20" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="I152" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J152" s="32" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" ht="78" spans="1:9">
       <c r="A153" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="I153" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" ht="78" spans="1:9">
       <c r="A154" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="I154" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" ht="78" spans="1:9">
       <c r="A155" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E155" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="I155" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" ht="78" spans="1:9">
       <c r="A156" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E156" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G156" s="43" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H156" s="43" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="I156" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" ht="78" spans="1:9">
       <c r="A157" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="I157" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" ht="78" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E158" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G158" s="43" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H158" s="20" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="I158" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" ht="78" spans="1:9">
       <c r="A159" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E159" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G159" s="43" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H159" s="43" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="I159" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" ht="78" spans="1:9">
       <c r="A160" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E160" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G160" s="44" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H160" s="44" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="I160" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" ht="78" spans="1:9">
       <c r="A161" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E161" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G161" s="44" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H161" s="44" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="I161" s="45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" spans="7:7">
